--- a/Hever_survival_unique.xlsx
+++ b/Hever_survival_unique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\R codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BE96AC-10FE-45C2-8EF2-5EA9306D171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261E0171-CBAD-4925-AA85-FA6B3C2BD9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5D6EE11-DDD0-4A28-BAB3-9E51164036E8}"/>
   </bookViews>
@@ -705,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,60 +715,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,216 +731,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,62 +1092,66 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="19.08984375" customWidth="1"/>
-    <col min="15" max="15" width="21.08984375" customWidth="1"/>
-    <col min="17" max="17" width="20.81640625" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="20" max="20" width="16.90625" customWidth="1"/>
-    <col min="21" max="26" width="18" customWidth="1"/>
+    <col min="1" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="19.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.08984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="20.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="16.90625" style="1" customWidth="1"/>
+    <col min="21" max="26" width="18" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -1376,16 +1160,16 @@
       <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="5" t="s">
@@ -1406,3054 +1190,2939 @@
       <c r="Z1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="1">
         <v>9</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="7">
         <v>180184</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="9">
         <v>2017</v>
       </c>
-      <c r="K2" s="58">
+      <c r="K2" s="9">
         <v>2</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="2">
         <v>43214</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="4">
         <v>43378</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="5">
         <f>O2-N2</f>
         <v>164</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="4">
         <v>43378</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="2">
         <f>Q2+10</f>
         <v>43388</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="11">
         <v>43406</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="5">
         <f t="shared" ref="U2:U29" si="0">T2-O2</f>
         <v>28</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="5">
         <v>28</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="5">
         <v>28</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="5">
         <f t="shared" ref="X2:X29" si="1">U2/7</f>
         <v>4</v>
       </c>
-      <c r="Y2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="9" t="s">
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="47">
-        <v>1</v>
-      </c>
-      <c r="E3" s="47">
-        <v>1</v>
-      </c>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="1">
         <v>12</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="12">
         <v>180175</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="9">
         <v>2017</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="9">
         <v>2</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="50">
+      <c r="M3" s="10"/>
+      <c r="N3" s="2">
         <v>43304</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="4">
         <v>43620</v>
       </c>
-      <c r="P3" s="52">
+      <c r="P3" s="5">
         <f>O3-N3</f>
         <v>316</v>
       </c>
-      <c r="Q3" s="51">
+      <c r="Q3" s="4">
         <v>43620</v>
       </c>
-      <c r="R3" s="53">
+      <c r="R3" s="11">
         <v>43622</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="53">
+      <c r="T3" s="11">
         <v>43622</v>
       </c>
-      <c r="U3" s="52">
+      <c r="U3" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="V3" s="52">
+      <c r="V3" s="5">
         <v>2</v>
       </c>
-      <c r="W3" s="52">
+      <c r="W3" s="5">
         <v>2</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="5">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="Y3" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="47" t="s">
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="47" t="s">
+      <c r="AB3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="47" t="s">
+      <c r="AC3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AD3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AE3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AF3" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="72">
-        <v>1</v>
-      </c>
-      <c r="E4" s="72">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="1">
         <v>13</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="12">
         <v>192965</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="14">
         <v>2018</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="14">
         <v>2</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76">
+      <c r="M4" s="10"/>
+      <c r="N4" s="2">
         <v>43718</v>
       </c>
-      <c r="O4" s="77">
+      <c r="O4" s="4">
         <v>43842</v>
       </c>
-      <c r="P4" s="78">
+      <c r="P4" s="5">
         <f>O4-N4</f>
         <v>124</v>
       </c>
-      <c r="Q4" s="77">
+      <c r="Q4" s="4">
         <v>43843</v>
       </c>
-      <c r="R4" s="76">
+      <c r="R4" s="2">
         <f t="shared" ref="R4:R12" si="2">Q4+10</f>
         <v>43853</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="79">
+      <c r="T4" s="11">
         <v>43980</v>
       </c>
-      <c r="U4" s="78">
+      <c r="U4" s="5">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="V4" s="78">
+      <c r="V4" s="5">
         <v>138</v>
       </c>
-      <c r="W4" s="78">
+      <c r="W4" s="5">
         <v>90</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="5">
         <f t="shared" si="1"/>
         <v>19.714285714285715</v>
       </c>
-      <c r="Y4" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="72">
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
         <v>0</v>
       </c>
-      <c r="AA4" s="72" t="s">
+      <c r="AA4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB4" s="72" t="s">
+      <c r="AB4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AC4" s="72" t="s">
+      <c r="AC4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="72" t="s">
+      <c r="AD4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE4" s="72" t="s">
+      <c r="AE4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="71" t="s">
+      <c r="AF4" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="87">
-        <v>1</v>
-      </c>
-      <c r="E5" s="87">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="1">
         <v>15</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="14">
         <v>200372</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="1">
         <v>2018</v>
       </c>
-      <c r="K5" s="88">
+      <c r="K5" s="14">
         <v>2</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="89" t="s">
+      <c r="M5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="90">
+      <c r="N5" s="2">
         <v>43850</v>
       </c>
-      <c r="O5" s="91">
+      <c r="O5" s="4">
         <v>43912</v>
       </c>
-      <c r="P5" s="92">
+      <c r="P5" s="5">
         <f>O5-N5</f>
         <v>62</v>
       </c>
-      <c r="Q5" s="91">
+      <c r="Q5" s="4">
         <v>43912</v>
       </c>
-      <c r="R5" s="90">
+      <c r="R5" s="2">
         <f t="shared" si="2"/>
         <v>43922</v>
       </c>
-      <c r="S5" s="90" t="s">
+      <c r="S5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="76">
+      <c r="T5" s="2">
         <v>44774</v>
       </c>
-      <c r="U5" s="67">
+      <c r="U5" s="5">
         <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="V5" s="67">
+      <c r="V5" s="5">
         <v>365</v>
       </c>
-      <c r="W5" s="67">
+      <c r="W5" s="5">
         <v>90</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="5">
         <f t="shared" si="1"/>
         <v>123.14285714285714</v>
       </c>
-      <c r="Y5" s="87">
+      <c r="Y5" s="1">
         <v>0</v>
       </c>
-      <c r="Z5" s="87">
+      <c r="Z5" s="1">
         <v>0</v>
       </c>
-      <c r="AA5" s="87" t="s">
+      <c r="AA5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="87" t="s">
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF5" s="89" t="s">
+      <c r="AF5" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="1">
         <v>16</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <v>200376</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="1">
         <v>2019</v>
       </c>
-      <c r="K6" s="18">
-        <v>1</v>
-      </c>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="14">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="20">
+      <c r="M6" s="3"/>
+      <c r="N6" s="2">
         <v>43913</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="4">
         <v>44147</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="5">
         <f>T6-O6</f>
         <v>32</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="4">
         <v>44147</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="2">
         <f t="shared" si="2"/>
         <v>44157</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="2">
         <v>44179</v>
       </c>
-      <c r="U6" s="67">
+      <c r="U6" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="5">
         <v>32</v>
       </c>
-      <c r="W6" s="67">
+      <c r="W6" s="5">
         <v>32</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="5">
         <f t="shared" si="1"/>
         <v>4.5714285714285712</v>
       </c>
-      <c r="Y6" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="17" t="s">
+      <c r="Y6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB6" s="17" t="s">
+      <c r="AB6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17" t="s">
+      <c r="AD6" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AE6" s="17" t="s">
+      <c r="AE6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF6" s="16" t="s">
+      <c r="AF6" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="96">
-        <v>1</v>
-      </c>
-      <c r="E7" s="96">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="1">
         <v>17</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="14">
         <v>192966</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J7" s="97">
+      <c r="J7" s="14">
         <v>2018</v>
       </c>
-      <c r="K7" s="97">
+      <c r="K7" s="14">
         <v>2</v>
       </c>
-      <c r="L7" s="96" t="s">
+      <c r="L7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="98">
+      <c r="N7" s="2">
         <v>44143</v>
       </c>
-      <c r="O7" s="99">
+      <c r="O7" s="4">
         <v>44164</v>
       </c>
-      <c r="P7" s="100">
+      <c r="P7" s="5">
         <f t="shared" ref="P7:P29" si="3">O7-N7</f>
         <v>21</v>
       </c>
-      <c r="Q7" s="99">
+      <c r="Q7" s="4">
         <v>44164</v>
       </c>
-      <c r="R7" s="98">
+      <c r="R7" s="2">
         <f t="shared" si="2"/>
         <v>44174</v>
       </c>
-      <c r="S7" s="98" t="s">
+      <c r="S7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="101">
+      <c r="T7" s="11">
         <v>44184</v>
       </c>
-      <c r="U7" s="100">
+      <c r="U7" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="V7" s="100">
+      <c r="V7" s="5">
         <v>20</v>
       </c>
-      <c r="W7" s="100">
+      <c r="W7" s="5">
         <v>20</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="5">
         <f t="shared" si="1"/>
         <v>2.8571428571428572</v>
       </c>
-      <c r="Y7" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="96" t="s">
+      <c r="Y7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="96" t="s">
+      <c r="AB7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC7" s="102" t="s">
+      <c r="AC7" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="AD7" s="102" t="s">
+      <c r="AD7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="AE7" s="96" t="s">
+      <c r="AE7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF7" s="95" t="s">
+      <c r="AF7" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="87">
-        <v>1</v>
-      </c>
-      <c r="E8" s="87">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="87">
+      <c r="G8" s="1">
         <v>15</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="14">
         <v>200370</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="88">
+      <c r="J8" s="14">
         <v>2018</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="14">
         <v>2</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="89" t="s">
+      <c r="M8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="90">
+      <c r="N8" s="2">
         <v>43850</v>
       </c>
-      <c r="O8" s="91">
+      <c r="O8" s="4">
         <v>43912</v>
       </c>
-      <c r="P8" s="92">
+      <c r="P8" s="5">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="Q8" s="91">
+      <c r="Q8" s="4">
         <v>43912</v>
       </c>
-      <c r="R8" s="90">
+      <c r="R8" s="2">
         <f t="shared" si="2"/>
         <v>43922</v>
       </c>
-      <c r="S8" s="90" t="s">
+      <c r="S8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="90">
+      <c r="T8" s="2">
         <v>43927</v>
       </c>
-      <c r="U8" s="67">
+      <c r="U8" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="V8" s="67">
+      <c r="V8" s="5">
         <v>15</v>
       </c>
-      <c r="W8" s="67">
+      <c r="W8" s="5">
         <v>15</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="5">
         <f t="shared" si="1"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="Y8" s="87">
+      <c r="Y8" s="1">
         <v>0</v>
       </c>
-      <c r="Z8" s="87">
+      <c r="Z8" s="1">
         <v>0</v>
       </c>
-      <c r="AA8" s="87" t="s">
+      <c r="AA8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AB8" s="87" t="s">
+      <c r="AB8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC8" s="87" t="s">
+      <c r="AC8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AD8" s="87" t="s">
+      <c r="AD8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AE8" s="87" t="s">
+      <c r="AE8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF8" s="89" t="s">
+      <c r="AF8" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="1">
         <v>16</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="14">
         <v>190124</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="1">
         <v>2019</v>
       </c>
-      <c r="K9" s="18">
-        <v>1</v>
-      </c>
-      <c r="L9" s="17" t="s">
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="20">
+      <c r="M9" s="3"/>
+      <c r="N9" s="2">
         <v>43913</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="4">
         <v>44147</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="5">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="4">
         <v>44147</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="2">
         <f t="shared" si="2"/>
         <v>44157</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="S9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="76">
+      <c r="T9" s="2">
         <v>44774</v>
       </c>
-      <c r="U9" s="67">
+      <c r="U9" s="5">
         <f t="shared" si="0"/>
         <v>627</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="5">
         <v>365</v>
       </c>
-      <c r="W9" s="67">
+      <c r="W9" s="5">
         <v>90</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="5">
         <f t="shared" si="1"/>
         <v>89.571428571428569</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="5">
         <v>0</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="5">
         <v>0</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AA9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17" t="s">
+      <c r="AD9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AE9" s="17" t="s">
+      <c r="AE9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF9" s="16" t="s">
+      <c r="AF9" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="72">
-        <v>1</v>
-      </c>
-      <c r="E10" s="72">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="1">
         <v>13</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="1">
         <v>192963</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="1">
         <v>2018</v>
       </c>
-      <c r="K10" s="80">
+      <c r="K10" s="9">
         <v>2</v>
       </c>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="76">
+      <c r="M10" s="3"/>
+      <c r="N10" s="2">
         <v>43718</v>
       </c>
-      <c r="O10" s="77">
+      <c r="O10" s="4">
         <v>43842</v>
       </c>
-      <c r="P10" s="78">
+      <c r="P10" s="5">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="Q10" s="77">
+      <c r="Q10" s="4">
         <v>43843</v>
       </c>
-      <c r="R10" s="76">
+      <c r="R10" s="2">
         <f t="shared" si="2"/>
         <v>43853</v>
       </c>
-      <c r="S10" s="76" t="s">
+      <c r="S10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="76">
+      <c r="T10" s="2">
         <v>44774</v>
       </c>
-      <c r="U10" s="78">
+      <c r="U10" s="5">
         <f t="shared" si="0"/>
         <v>932</v>
       </c>
-      <c r="V10" s="78">
+      <c r="V10" s="5">
         <v>365</v>
       </c>
-      <c r="W10" s="78">
+      <c r="W10" s="5">
         <v>90</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="5">
         <f t="shared" si="1"/>
         <v>133.14285714285714</v>
       </c>
-      <c r="Y10" s="72">
+      <c r="Y10" s="1">
         <v>0</v>
       </c>
-      <c r="Z10" s="72">
+      <c r="Z10" s="1">
         <v>0</v>
       </c>
-      <c r="AA10" s="72" t="s">
+      <c r="AA10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="72" t="s">
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF10" s="71" t="s">
+      <c r="AF10" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="96">
-        <v>1</v>
-      </c>
-      <c r="E11" s="96">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="14">
         <v>200667</v>
       </c>
-      <c r="I11" s="95" t="s">
+      <c r="I11" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J11" s="96">
+      <c r="J11" s="1">
         <v>2019</v>
       </c>
-      <c r="K11" s="97">
-        <v>1</v>
-      </c>
-      <c r="L11" s="96" t="s">
+      <c r="K11" s="14">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="95"/>
-      <c r="N11" s="98">
+      <c r="M11" s="3"/>
+      <c r="N11" s="2">
         <v>43913</v>
       </c>
-      <c r="O11" s="99">
+      <c r="O11" s="4">
         <v>44164</v>
       </c>
-      <c r="P11" s="100">
+      <c r="P11" s="5">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="Q11" s="99">
+      <c r="Q11" s="4">
         <v>44164</v>
       </c>
-      <c r="R11" s="98">
+      <c r="R11" s="2">
         <f t="shared" si="2"/>
         <v>44174</v>
       </c>
-      <c r="S11" s="98" t="s">
+      <c r="S11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="76">
+      <c r="T11" s="2">
         <v>44774</v>
       </c>
-      <c r="U11" s="100">
+      <c r="U11" s="5">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-      <c r="V11" s="100">
+      <c r="V11" s="5">
         <v>365</v>
       </c>
-      <c r="W11" s="100">
+      <c r="W11" s="5">
         <v>90</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="5">
         <f t="shared" si="1"/>
         <v>87.142857142857139</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="5">
         <v>0</v>
       </c>
-      <c r="AA11" s="96" t="s">
+      <c r="AA11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96" t="s">
+      <c r="AD11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AE11" s="96" t="s">
+      <c r="AE11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF11" s="95" t="s">
+      <c r="AF11" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="72">
-        <v>1</v>
-      </c>
-      <c r="E12" s="72">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="1">
         <v>13</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="1">
         <v>192967</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="1">
         <v>2018</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="72" t="s">
+      <c r="L12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="76">
+      <c r="M12" s="3"/>
+      <c r="N12" s="2">
         <v>43787</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="4">
         <v>43843</v>
       </c>
-      <c r="P12" s="78">
+      <c r="P12" s="5">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="Q12" s="77">
+      <c r="Q12" s="4">
         <v>43843</v>
       </c>
-      <c r="R12" s="76">
+      <c r="R12" s="2">
         <f t="shared" si="2"/>
         <v>43853</v>
       </c>
-      <c r="S12" s="76" t="s">
+      <c r="S12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="76">
+      <c r="T12" s="2">
         <v>44774</v>
       </c>
-      <c r="U12" s="78">
+      <c r="U12" s="5">
         <f t="shared" si="0"/>
         <v>931</v>
       </c>
-      <c r="V12" s="78">
+      <c r="V12" s="5">
         <v>365</v>
       </c>
-      <c r="W12" s="78">
+      <c r="W12" s="5">
         <v>90</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="5">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="Y12" s="72">
+      <c r="Y12" s="1">
         <v>0</v>
       </c>
-      <c r="Z12" s="72">
+      <c r="Z12" s="1">
         <v>0</v>
       </c>
-      <c r="AA12" s="72" t="s">
+      <c r="AA12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="72" t="s">
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF12" s="71" t="s">
+      <c r="AF12" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="47">
-        <v>1</v>
-      </c>
-      <c r="E13" s="47">
-        <v>1</v>
-      </c>
-      <c r="F13" s="47" t="s">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="1">
         <v>11</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="12">
         <v>180175</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="9">
         <v>2017</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="9">
         <v>2</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="2">
         <v>43304</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="4">
         <v>43599</v>
       </c>
-      <c r="P13" s="52">
+      <c r="P13" s="5">
         <f t="shared" si="3"/>
         <v>295</v>
       </c>
-      <c r="Q13" s="66">
+      <c r="Q13" s="4">
         <v>43599</v>
       </c>
-      <c r="R13" s="53">
+      <c r="R13" s="11">
         <v>43606</v>
       </c>
-      <c r="S13" s="50" t="s">
+      <c r="S13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T13" s="53">
+      <c r="T13" s="11">
         <v>43606</v>
       </c>
-      <c r="U13" s="52">
+      <c r="U13" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="V13" s="52">
+      <c r="V13" s="5">
         <v>7</v>
       </c>
-      <c r="W13" s="52">
+      <c r="W13" s="5">
         <v>7</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="47" t="s">
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB13" s="47" t="s">
+      <c r="AB13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AC13" s="47" t="s">
+      <c r="AC13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="47" t="s">
+      <c r="AD13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AE13" s="47" t="s">
+      <c r="AE13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF13" s="47" t="s">
+      <c r="AF13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="87">
-        <v>1</v>
-      </c>
-      <c r="E14" s="87">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="1">
         <v>15</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="14">
         <v>200371</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="14">
         <v>2018</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="14">
         <v>2</v>
       </c>
-      <c r="L14" s="87" t="s">
+      <c r="L14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="89" t="s">
+      <c r="M14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="90">
+      <c r="N14" s="2">
         <v>43850</v>
       </c>
-      <c r="O14" s="91">
+      <c r="O14" s="4">
         <v>43912</v>
       </c>
-      <c r="P14" s="92">
+      <c r="P14" s="5">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="Q14" s="91">
+      <c r="Q14" s="4">
         <v>43912</v>
       </c>
-      <c r="R14" s="90">
+      <c r="R14" s="2">
         <f>Q14+10</f>
         <v>43922</v>
       </c>
-      <c r="S14" s="90" t="s">
+      <c r="S14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="90">
+      <c r="T14" s="2">
         <v>43947</v>
       </c>
-      <c r="U14" s="67">
+      <c r="U14" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="V14" s="67">
+      <c r="V14" s="5">
         <v>35</v>
       </c>
-      <c r="W14" s="67">
+      <c r="W14" s="5">
         <v>35</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Y14" s="87">
+      <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="Z14" s="87">
+      <c r="Z14" s="1">
         <v>0</v>
       </c>
-      <c r="AA14" s="87" t="s">
+      <c r="AA14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AB14" s="87" t="s">
+      <c r="AB14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC14" s="87" t="s">
+      <c r="AC14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="87" t="s">
+      <c r="AD14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AE14" s="87" t="s">
+      <c r="AE14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF14" s="89" t="s">
+      <c r="AF14" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="61">
-        <v>1</v>
-      </c>
-      <c r="E15" s="61">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="14">
         <v>180185</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="9">
         <v>2016</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="9">
         <v>3</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="63" t="s">
+      <c r="M15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="65">
+      <c r="N15" s="2">
         <v>43214</v>
       </c>
-      <c r="O15" s="66">
+      <c r="O15" s="4">
         <v>43599</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="5">
         <f t="shared" si="3"/>
         <v>385</v>
       </c>
-      <c r="Q15" s="66">
+      <c r="Q15" s="4">
         <v>43599</v>
       </c>
-      <c r="R15" s="65">
+      <c r="R15" s="2">
         <f>Q15+10</f>
         <v>43609</v>
       </c>
-      <c r="S15" s="65" t="s">
+      <c r="S15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T15" s="68">
+      <c r="T15" s="11">
         <v>43625</v>
       </c>
-      <c r="U15" s="67">
+      <c r="U15" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="V15" s="67">
+      <c r="V15" s="5">
         <v>26</v>
       </c>
-      <c r="W15" s="67">
+      <c r="W15" s="5">
         <v>26</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="5">
         <f t="shared" si="1"/>
         <v>3.7142857142857144</v>
       </c>
-      <c r="Y15" s="61">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="61">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="61" t="s">
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" s="61" t="s">
+      <c r="AB15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC15" s="61" t="s">
+      <c r="AC15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD15" s="61" t="s">
+      <c r="AD15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AE15" s="61" t="s">
+      <c r="AE15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF15" s="61" t="s">
+      <c r="AF15" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="47">
-        <v>1</v>
-      </c>
-      <c r="E16" s="47">
-        <v>1</v>
-      </c>
-      <c r="F16" s="47" t="s">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="1">
         <v>7</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="14">
         <v>180179</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="14">
         <v>2016</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="14">
         <v>2</v>
       </c>
-      <c r="L16" s="47" t="s">
+      <c r="L16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="2">
         <v>43080</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="4">
         <v>43304</v>
       </c>
-      <c r="P16" s="52">
+      <c r="P16" s="5">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="4">
         <v>43304</v>
       </c>
-      <c r="R16" s="50">
+      <c r="R16" s="2">
         <v>43306</v>
       </c>
-      <c r="S16" s="50" t="s">
+      <c r="S16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="53">
+      <c r="T16" s="11">
         <v>43306</v>
       </c>
-      <c r="U16" s="52">
+      <c r="U16" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="V16" s="52">
+      <c r="V16" s="5">
         <v>2</v>
       </c>
-      <c r="W16" s="52">
+      <c r="W16" s="5">
         <v>2</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X16" s="5">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="Y16" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="47" t="s">
+      <c r="Y16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB16" s="47" t="s">
+      <c r="AB16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AC16" s="47" t="s">
+      <c r="AC16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD16" s="47" t="s">
+      <c r="AD16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AE16" s="46" t="s">
+      <c r="AE16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AF16" s="47" t="s">
+      <c r="AF16" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="61">
-        <v>1</v>
-      </c>
-      <c r="E17" s="61">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="1">
         <v>14</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="14">
         <v>190124</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="14">
         <v>2018</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="14">
         <v>2</v>
       </c>
-      <c r="L17" s="61" t="s">
+      <c r="L17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="60"/>
-      <c r="N17" s="65">
+      <c r="M17" s="3"/>
+      <c r="N17" s="2">
         <v>43787</v>
       </c>
-      <c r="O17" s="66">
+      <c r="O17" s="4">
         <v>43882</v>
       </c>
-      <c r="P17" s="67">
+      <c r="P17" s="5">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="Q17" s="66">
+      <c r="Q17" s="4">
         <v>43882</v>
       </c>
-      <c r="R17" s="68">
+      <c r="R17" s="11">
         <v>43891</v>
       </c>
-      <c r="S17" s="65" t="s">
+      <c r="S17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="68">
+      <c r="T17" s="11">
         <v>43891</v>
       </c>
-      <c r="U17" s="67">
+      <c r="U17" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="V17" s="67">
+      <c r="V17" s="5">
         <v>9</v>
       </c>
-      <c r="W17" s="67">
+      <c r="W17" s="5">
         <v>9</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="5">
         <f t="shared" si="1"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="Y17" s="61">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="61">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="61" t="s">
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB17" s="61" t="s">
+      <c r="AB17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AC17" s="61" t="s">
+      <c r="AC17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD17" s="61" t="s">
+      <c r="AD17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AE17" s="61" t="s">
+      <c r="AE17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF17" s="60" t="s">
+      <c r="AF17" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="47">
-        <v>1</v>
-      </c>
-      <c r="E18" s="47">
-        <v>1</v>
-      </c>
-      <c r="F18" s="47" t="s">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="1">
         <v>11</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="14">
         <v>190115</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="9">
         <v>2017</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="9">
         <v>2</v>
       </c>
-      <c r="L18" s="47" t="s">
+      <c r="L18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="55"/>
-      <c r="N18" s="50">
+      <c r="M18" s="10"/>
+      <c r="N18" s="2">
         <v>43304</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="4">
         <v>43599</v>
       </c>
-      <c r="P18" s="52">
+      <c r="P18" s="5">
         <f t="shared" si="3"/>
         <v>295</v>
       </c>
-      <c r="Q18" s="66">
+      <c r="Q18" s="4">
         <v>43599</v>
       </c>
-      <c r="R18" s="53">
+      <c r="R18" s="11">
         <v>43602</v>
       </c>
-      <c r="S18" s="50" t="s">
+      <c r="S18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T18" s="53">
+      <c r="T18" s="11">
         <v>43602</v>
       </c>
-      <c r="U18" s="52">
+      <c r="U18" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="V18" s="52">
+      <c r="V18" s="5">
         <v>3</v>
       </c>
-      <c r="W18" s="52">
+      <c r="W18" s="5">
         <v>3</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X18" s="5">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Y18" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="47" t="s">
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB18" s="47" t="s">
+      <c r="AB18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AC18" s="47" t="s">
+      <c r="AC18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD18" s="47" t="s">
+      <c r="AD18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AE18" s="47" t="s">
+      <c r="AE18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF18" s="47" t="s">
+      <c r="AF18" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="87">
-        <v>1</v>
-      </c>
-      <c r="E19" s="87">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="1">
         <v>15</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="14">
         <v>200373</v>
       </c>
-      <c r="I19" s="89" t="s">
+      <c r="I19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="1">
         <v>2018</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="14">
         <v>2</v>
       </c>
-      <c r="L19" s="87" t="s">
+      <c r="L19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="89" t="s">
+      <c r="M19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="90">
+      <c r="N19" s="2">
         <v>43850</v>
       </c>
-      <c r="O19" s="91">
+      <c r="O19" s="4">
         <v>43912</v>
       </c>
-      <c r="P19" s="92">
+      <c r="P19" s="5">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="Q19" s="91">
+      <c r="Q19" s="4">
         <v>43912</v>
       </c>
-      <c r="R19" s="90">
+      <c r="R19" s="2">
         <f>Q19+10</f>
         <v>43922</v>
       </c>
-      <c r="S19" s="90" t="s">
+      <c r="S19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="76">
+      <c r="T19" s="2">
         <v>44774</v>
       </c>
-      <c r="U19" s="67">
+      <c r="U19" s="5">
         <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="V19" s="67">
+      <c r="V19" s="5">
         <v>365</v>
       </c>
-      <c r="W19" s="67">
+      <c r="W19" s="5">
         <v>90</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X19" s="5">
         <f t="shared" si="1"/>
         <v>123.14285714285714</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="Y19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="Z19" s="5">
         <v>0</v>
       </c>
-      <c r="AA19" s="87" t="s">
+      <c r="AA19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="87" t="s">
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF19" s="89" t="s">
+      <c r="AF19" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="61">
-        <v>1</v>
-      </c>
-      <c r="E20" s="61">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="1">
         <v>14</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="14">
         <v>192966</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="14">
         <v>2016</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="14">
         <v>4</v>
       </c>
-      <c r="L20" s="61" t="s">
+      <c r="L20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="85"/>
-      <c r="N20" s="65">
+      <c r="M20" s="10"/>
+      <c r="N20" s="2">
         <v>43787</v>
       </c>
-      <c r="O20" s="66">
+      <c r="O20" s="4">
         <v>43882</v>
       </c>
-      <c r="P20" s="67">
+      <c r="P20" s="5">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="Q20" s="66">
+      <c r="Q20" s="4">
         <v>43882</v>
       </c>
-      <c r="R20" s="65">
+      <c r="R20" s="2">
         <f>Q20+10</f>
         <v>43892</v>
       </c>
-      <c r="S20" s="65" t="s">
+      <c r="S20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="86">
+      <c r="T20" s="18">
         <v>43968</v>
       </c>
-      <c r="U20" s="67">
+      <c r="U20" s="5">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="V20" s="67">
+      <c r="V20" s="5">
         <v>86</v>
       </c>
-      <c r="W20" s="67">
+      <c r="W20" s="5">
         <v>86</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X20" s="5">
         <f t="shared" si="1"/>
         <v>12.285714285714286</v>
       </c>
-      <c r="Y20" s="61">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="61">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="61" t="s">
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB20" s="61" t="s">
+      <c r="AB20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AC20" s="61" t="s">
+      <c r="AC20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD20" s="61" t="s">
+      <c r="AD20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE20" s="61" t="s">
+      <c r="AE20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF20" s="60" t="s">
+      <c r="AF20" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
         <v>16036</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="14">
         <v>2016</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="14">
         <v>2</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="2">
         <v>42900</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="4">
         <v>43083</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="5">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="4">
         <v>43084</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="2">
         <f>Q21+10</f>
         <v>43094</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="S21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="11">
         <v>43098</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="5">
         <v>15</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W21" s="5">
         <v>15</v>
       </c>
-      <c r="X21" s="14">
+      <c r="X21" s="5">
         <f t="shared" si="1"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="Y21" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="9" t="s">
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB21" s="9" t="s">
+      <c r="AB21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC21" s="9" t="s">
+      <c r="AC21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD21" s="9" t="s">
+      <c r="AD21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE21" s="9" t="s">
+      <c r="AE21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF21" s="9" t="s">
+      <c r="AF21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="17">
-        <v>1</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="14">
         <v>180177</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="9">
         <v>2017</v>
       </c>
-      <c r="K22" s="24">
-        <v>1</v>
-      </c>
-      <c r="L22" s="17" t="s">
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="2">
         <v>43214</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="4">
         <v>43264</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="4">
         <v>43264</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="2">
         <f>Q22+10</f>
         <v>43274</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="11">
         <v>43296</v>
       </c>
-      <c r="U22" s="22">
+      <c r="U22" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="V22" s="22">
+      <c r="V22" s="5">
         <v>32</v>
       </c>
-      <c r="W22" s="22">
+      <c r="W22" s="5">
         <v>32</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X22" s="5">
         <f t="shared" si="1"/>
         <v>4.5714285714285712</v>
       </c>
-      <c r="Y22" s="17">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="17" t="s">
+      <c r="Y22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB22" s="17" t="s">
+      <c r="AB22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AC22" s="17" t="s">
+      <c r="AC22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD22" s="17" t="s">
+      <c r="AD22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AE22" s="17" t="s">
+      <c r="AE22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF22" s="17" t="s">
+      <c r="AF22" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="47">
-        <v>1</v>
-      </c>
-      <c r="E23" s="47">
-        <v>1</v>
-      </c>
-      <c r="F23" s="47" t="s">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="1">
         <v>12</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="19">
         <v>190117</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="9">
         <v>2017</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K23" s="9">
         <v>2</v>
       </c>
-      <c r="L23" s="47" t="s">
+      <c r="L23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="55"/>
-      <c r="N23" s="50">
+      <c r="M23" s="10"/>
+      <c r="N23" s="2">
         <v>43304</v>
       </c>
-      <c r="O23" s="51">
+      <c r="O23" s="4">
         <v>43620</v>
       </c>
-      <c r="P23" s="52">
+      <c r="P23" s="5">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="4">
         <v>43620</v>
       </c>
-      <c r="R23" s="53">
+      <c r="R23" s="11">
         <v>43622</v>
       </c>
-      <c r="S23" s="50" t="s">
+      <c r="S23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T23" s="53">
+      <c r="T23" s="11">
         <v>43621</v>
       </c>
-      <c r="U23" s="52">
+      <c r="U23" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V23" s="52">
-        <v>1</v>
-      </c>
-      <c r="W23" s="52">
-        <v>1</v>
-      </c>
-      <c r="X23" s="14">
+      <c r="V23" s="5">
+        <v>1</v>
+      </c>
+      <c r="W23" s="5">
+        <v>1</v>
+      </c>
+      <c r="X23" s="5">
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y23" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="47" t="s">
+      <c r="Y23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB23" s="47" t="s">
+      <c r="AB23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AC23" s="47" t="s">
+      <c r="AC23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD23" s="47" t="s">
+      <c r="AD23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AE23" s="47" t="s">
+      <c r="AE23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF23" s="47" t="s">
+      <c r="AF23" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="96">
-        <v>1</v>
-      </c>
-      <c r="E24" s="96">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="96" t="s">
+      <c r="F24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="96">
+      <c r="G24" s="1">
         <v>17</v>
       </c>
-      <c r="H24" s="97">
+      <c r="H24" s="14">
         <v>200379</v>
       </c>
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="J24" s="97">
+      <c r="J24" s="14">
         <v>2018</v>
       </c>
-      <c r="K24" s="97">
+      <c r="K24" s="14">
         <v>2</v>
       </c>
-      <c r="L24" s="96" t="s">
+      <c r="L24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="95" t="s">
+      <c r="M24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N24" s="98">
+      <c r="N24" s="2">
         <v>44143</v>
       </c>
-      <c r="O24" s="99">
+      <c r="O24" s="4">
         <v>44164</v>
       </c>
-      <c r="P24" s="100">
+      <c r="P24" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="Q24" s="99">
+      <c r="Q24" s="4">
         <v>44164</v>
       </c>
-      <c r="R24" s="98">
+      <c r="R24" s="2">
         <f t="shared" ref="R24:R29" si="4">Q24+10</f>
         <v>44174</v>
       </c>
-      <c r="S24" s="98" t="s">
+      <c r="S24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="101">
+      <c r="T24" s="11">
         <v>44199</v>
       </c>
-      <c r="U24" s="100">
+      <c r="U24" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="V24" s="100">
+      <c r="V24" s="5">
         <v>35</v>
       </c>
-      <c r="W24" s="100">
+      <c r="W24" s="5">
         <v>35</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X24" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Y24" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="96" t="s">
+      <c r="Y24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB24" s="96" t="s">
+      <c r="AB24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC24" s="96" t="s">
+      <c r="AC24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD24" s="96" t="s">
+      <c r="AD24" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AE24" s="96" t="s">
+      <c r="AE24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF24" s="95" t="s">
+      <c r="AF24" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="17">
-        <v>1</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="14">
         <v>171122</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="9">
         <v>2016</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="9">
         <v>2</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="2">
         <v>42900</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="4">
         <v>43151</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="5">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="4">
         <v>43152</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="2">
         <f t="shared" si="4"/>
         <v>43162</v>
       </c>
-      <c r="S25" s="20" t="s">
+      <c r="S25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T25" s="11">
         <v>43190</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="V25" s="22">
+      <c r="V25" s="5">
         <v>39</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25" s="5">
         <v>39</v>
       </c>
-      <c r="X25" s="14">
+      <c r="X25" s="5">
         <f t="shared" si="1"/>
         <v>5.5714285714285712</v>
       </c>
-      <c r="Y25" s="17">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="17" t="s">
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB25" s="17" t="s">
+      <c r="AB25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC25" s="17" t="s">
+      <c r="AC25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AD25" s="17" t="s">
+      <c r="AD25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE25" s="17" t="s">
+      <c r="AE25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF25" s="17" t="s">
+      <c r="AF25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="72">
-        <v>1</v>
-      </c>
-      <c r="E26" s="72">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="72">
+      <c r="G26" s="1">
         <v>13</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="12">
         <v>192964</v>
       </c>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J26" s="74">
+      <c r="J26" s="14">
         <v>2018</v>
       </c>
-      <c r="K26" s="74">
+      <c r="K26" s="14">
         <v>2</v>
       </c>
-      <c r="L26" s="72" t="s">
+      <c r="L26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M26" s="75"/>
-      <c r="N26" s="76">
+      <c r="M26" s="10"/>
+      <c r="N26" s="2">
         <v>43718</v>
       </c>
-      <c r="O26" s="77">
+      <c r="O26" s="4">
         <v>43842</v>
       </c>
-      <c r="P26" s="78">
+      <c r="P26" s="5">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="Q26" s="77">
+      <c r="Q26" s="4">
         <v>43843</v>
       </c>
-      <c r="R26" s="76">
+      <c r="R26" s="2">
         <f t="shared" si="4"/>
         <v>43853</v>
       </c>
-      <c r="S26" s="76" t="s">
+      <c r="S26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T26" s="79">
+      <c r="T26" s="11">
         <v>44107</v>
       </c>
-      <c r="U26" s="78">
+      <c r="U26" s="5">
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="V26" s="78">
+      <c r="V26" s="5">
         <v>265</v>
       </c>
-      <c r="W26" s="78">
+      <c r="W26" s="5">
         <v>90</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X26" s="5">
         <f t="shared" si="1"/>
         <v>37.857142857142854</v>
       </c>
-      <c r="Y26" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="72">
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1">
         <v>0</v>
       </c>
-      <c r="AA26" s="72" t="s">
+      <c r="AA26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB26" s="72" t="s">
+      <c r="AB26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC26" s="72" t="s">
+      <c r="AC26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AD26" s="72" t="s">
+      <c r="AD26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AE26" s="72" t="s">
+      <c r="AE26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF26" s="71" t="s">
+      <c r="AF26" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="27">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="1">
         <v>3</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="14">
         <v>17486</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="14">
         <v>2016</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="14">
         <v>2</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="2">
         <v>42900</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="4">
         <v>43188</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="5">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="Q27" s="31">
+      <c r="Q27" s="4">
         <v>43188</v>
       </c>
-      <c r="R27" s="30">
+      <c r="R27" s="2">
         <f t="shared" si="4"/>
         <v>43198</v>
       </c>
-      <c r="S27" s="30" t="s">
+      <c r="S27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="11">
         <v>43318</v>
       </c>
-      <c r="U27" s="32">
+      <c r="U27" s="5">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="V27" s="32">
+      <c r="V27" s="5">
         <v>130</v>
       </c>
-      <c r="W27" s="32">
+      <c r="W27" s="5">
         <v>90</v>
       </c>
-      <c r="X27" s="14">
+      <c r="X27" s="5">
         <f t="shared" si="1"/>
         <v>18.571428571428573</v>
       </c>
-      <c r="Y27" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="27">
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
         <v>0</v>
       </c>
-      <c r="AA27" s="27" t="s">
+      <c r="AA27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB27" s="27" t="s">
+      <c r="AB27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC27" s="27" t="s">
+      <c r="AC27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AD27" s="27" t="s">
+      <c r="AD27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AE27" s="27" t="s">
+      <c r="AE27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF27" s="27" t="s">
+      <c r="AF27" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
         <v>171116</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="14">
         <v>2016</v>
       </c>
-      <c r="K28" s="10">
-        <v>1</v>
-      </c>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="14">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="2">
         <v>42900</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="4">
         <v>43084</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="5">
         <f t="shared" si="3"/>
         <v>184</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="4">
         <v>43084</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="2">
         <f t="shared" si="4"/>
         <v>43094</v>
       </c>
-      <c r="S28" s="12" t="s">
+      <c r="S28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T28" s="15">
+      <c r="T28" s="11">
         <v>43097</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U28" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="5">
         <v>13</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W28" s="5">
         <v>13</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X28" s="5">
         <f t="shared" si="1"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="Y28" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="9" t="s">
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB28" s="9" t="s">
+      <c r="AB28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC28" s="9" t="s">
+      <c r="AC28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD28" s="9" t="s">
+      <c r="AD28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE28" s="9" t="s">
+      <c r="AE28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF28" s="9" t="s">
+      <c r="AF28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="35">
-        <v>1</v>
-      </c>
-      <c r="E29" s="35">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="1">
         <v>4</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="19">
         <v>180176</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="9">
         <v>2016</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="9">
         <v>2</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="L29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="40">
+      <c r="N29" s="2">
         <v>42900</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="4">
         <v>43203</v>
       </c>
-      <c r="P29" s="42">
+      <c r="P29" s="5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="4">
         <v>43203</v>
       </c>
-      <c r="R29" s="40">
+      <c r="R29" s="2">
         <f t="shared" si="4"/>
         <v>43213</v>
       </c>
-      <c r="S29" s="40" t="s">
+      <c r="S29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T29" s="43">
+      <c r="T29" s="11">
         <v>43234</v>
       </c>
-      <c r="U29" s="42">
+      <c r="U29" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="V29" s="42">
+      <c r="V29" s="5">
         <v>31</v>
       </c>
-      <c r="W29" s="42">
+      <c r="W29" s="5">
         <v>31</v>
       </c>
-      <c r="X29" s="14">
+      <c r="X29" s="5">
         <f t="shared" si="1"/>
         <v>4.4285714285714288</v>
       </c>
-      <c r="Y29" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="35">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="35" t="s">
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB29" s="35" t="s">
+      <c r="AB29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC29" s="35" t="s">
+      <c r="AC29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD29" s="35" t="s">
+      <c r="AD29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE29" s="35" t="s">
+      <c r="AE29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF29" s="35" t="s">
+      <c r="AF29" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="71"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="72"/>
+      <c r="A30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="72"/>
-      <c r="AB31" s="72"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="72"/>
+      <c r="I31" s="20"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AE31" s="3"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="72"/>
+      <c r="I32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="72"/>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="I33" s="20"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="78"/>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="72"/>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="I34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="71"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="71"/>
-      <c r="AF35" s="72"/>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="I35" s="20"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="84"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="72"/>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A36" s="17"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="7"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AE36" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF29">
